--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_10_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067696.395610023</v>
+        <v>1032353.685091199</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1277382.751366258</v>
+        <v>1277382.751366257</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7350128.429123395</v>
+        <v>7350128.4291234</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9160474.75302482</v>
+        <v>9160474.753024822</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>43.55459982911461</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>50.19740799690857</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>50.19740799690857</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.40597094474284</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>50.19740799690857</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>50.19740799690857</v>
@@ -788,7 +788,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.21387696367703</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9.626473537507769</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>50.19740799690857</v>
       </c>
       <c r="U4" t="n">
-        <v>9.626473537507714</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>50.19740799690857</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>43.55459982911461</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="S5" t="n">
         <v>50.19740799690857</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>21.40597094474285</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>44.21387696367704</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>50.19740799690857</v>
-      </c>
-      <c r="S6" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="T6" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="U6" t="n">
-        <v>44.21387696367703</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.4008832553411</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>9.626473537507742</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>50.19740799690857</v>
       </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>50.19740799690857</v>
-      </c>
-      <c r="U7" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,52 +1141,52 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>50.19740799690857</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>50.19740799690857</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>21.40597094474285</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1226,47 +1226,47 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>50.19740799690857</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
         <v>50.19740799690857</v>
       </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
         <v>50.19740799690857</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>44.21387696367704</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.21387696367703</v>
       </c>
     </row>
     <row r="10">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9.626473537507769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>342.1266566522086</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4648643222781</v>
+        <v>182.7247362986467</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>54.54244888678674</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3665714900202</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.55427787637352</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>145.3580390812033</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.4921685537585</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.0182633850934</v>
       </c>
       <c r="V13" t="n">
-        <v>5.418478665166494</v>
+        <v>240.8173976619825</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>167.1543373075942</v>
       </c>
       <c r="G14" t="n">
         <v>413.4648643222781</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.02420677967904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U14" t="n">
         <v>251.3665714900202</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>48.5226625160229</v>
+        <v>48.52266251602317</v>
       </c>
       <c r="S15" t="n">
-        <v>155.1484065354224</v>
+        <v>155.1484065354223</v>
       </c>
       <c r="T15" t="n">
         <v>195.3850496005392</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.31579812328667</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2661271539771</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.0909300356798</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.0093508388473</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.7303872890863</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0182633850934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -1894,22 +1894,22 @@
         <v>54.54244888678674</v>
       </c>
       <c r="S17" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>67.80713958994342</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3665714900202</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>210.1774742400452</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0742903087337</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0182633850934</v>
+        <v>136.8122996072406</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4648643222781</v>
+        <v>94.6247135921498</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>38.33321866329631</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.55427787637352</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>145.3580390812033</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.4921685537585</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.66858385713</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.76815819312996</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>136.8122996072406</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
@@ -2335,10 +2335,10 @@
         <v>413.4648643222781</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.6401464215601</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S23" t="n">
-        <v>126.7595168333116</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.880825211923</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3665714900202</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>320.4958728052673</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2661271539771</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0182633850934</v>
+        <v>136.8122996072406</v>
       </c>
       <c r="V25" t="n">
-        <v>75.58221284932576</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>252.0859801073522</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.6401464215601</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>54.54244888678674</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T26" t="n">
-        <v>216.880825211923</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3665714900202</v>
+        <v>29.63361670886087</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49838940836979</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2661271539771</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.2619617299046</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>42.05950916643354</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2313000303281</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3665714900202</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.0909300356798</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.4921685537585</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.66858385713</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>126.273384662404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.54011521839747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4648643222781</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.6401464215601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3665714900202</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>258.5057233256948</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>310.7990356809563</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2661271539771</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.55427787637352</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>145.3580390812033</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>116.9141095822732</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.66858385713</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0182633850934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>164.1543803193719</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>330.2430791923398</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4648643222781</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>39.02956063842317</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>82.41840332217777</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.4921685537585</v>
       </c>
       <c r="T37" t="n">
         <v>225.66858385713</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>92.52145374090225</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -3514,16 +3514,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4648643222781</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>138.1931061489571</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>92.46150267458782</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.3665714900202</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>155.1484065354223</v>
       </c>
       <c r="T39" t="n">
-        <v>195.3850496005394</v>
+        <v>195.3850496005392</v>
       </c>
       <c r="U39" t="n">
         <v>224.6082518935168</v>
@@ -3678,7 +3678,7 @@
         <v>167.2661271539771</v>
       </c>
       <c r="H40" t="n">
-        <v>124.1706148962828</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.55427787637352</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.3580390812033</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>211.4921685537585</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>44.14658078692046</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>323.0554723050743</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>248.3012165098789</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>48.5226625160229</v>
+        <v>48.52266251602272</v>
       </c>
       <c r="S42" t="n">
         <v>155.1484065354223</v>
       </c>
       <c r="T42" t="n">
-        <v>195.3850496005394</v>
+        <v>195.3850496005392</v>
       </c>
       <c r="U42" t="n">
         <v>224.6082518935168</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.2661271539771</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.4921685537585</v>
       </c>
       <c r="T43" t="n">
-        <v>103.7303872890865</v>
+        <v>116.9992403631758</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0182633850934</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -3991,10 +3991,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.4648643222781</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I44" t="n">
         <v>151.6401464215601</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>188.3114242908213</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>317.1109312961897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.5226625160229</v>
+        <v>48.52266251602272</v>
       </c>
       <c r="S45" t="n">
         <v>155.1484065354223</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2661271539771</v>
+        <v>53.61832397338846</v>
       </c>
       <c r="H46" t="n">
-        <v>156.0909300356798</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>135.0093508388473</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4748195330911</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.38072694337451</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="C2" t="n">
-        <v>99.38072694337451</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="D2" t="n">
-        <v>99.38072694337451</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="E2" t="n">
-        <v>99.38072694337451</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="F2" t="n">
-        <v>55.38618166144055</v>
+        <v>19.68654267853384</v>
       </c>
       <c r="G2" t="n">
         <v>4.681729139310681</v>
@@ -4333,22 +4333,22 @@
         <v>4.015792639752686</v>
       </c>
       <c r="K2" t="n">
+        <v>4.015792639752686</v>
+      </c>
+      <c r="L2" t="n">
         <v>53.71122655669217</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>103.4066604736316</v>
       </c>
-      <c r="M2" t="n">
-        <v>147.0752508385693</v>
-      </c>
       <c r="N2" t="n">
-        <v>147.0752508385693</v>
+        <v>153.1020943905711</v>
       </c>
       <c r="O2" t="n">
-        <v>147.0752508385693</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="P2" t="n">
-        <v>196.7706847555088</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="Q2" t="n">
         <v>200.7896319876343</v>
@@ -4357,25 +4357,25 @@
         <v>150.0851794655044</v>
       </c>
       <c r="S2" t="n">
-        <v>150.0851794655044</v>
+        <v>128.4629865920268</v>
       </c>
       <c r="T2" t="n">
-        <v>150.0851794655044</v>
+        <v>128.4629865920268</v>
       </c>
       <c r="U2" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="V2" t="n">
-        <v>150.0851794655044</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="W2" t="n">
-        <v>150.0851794655044</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="X2" t="n">
-        <v>150.0851794655044</v>
+        <v>27.05408154776701</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.38072694337451</v>
+        <v>27.05408154776701</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="C3" t="n">
         <v>105.4246976840124</v>
       </c>
       <c r="D3" t="n">
-        <v>54.72024516188256</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="E3" t="n">
-        <v>54.72024516188256</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="F3" t="n">
-        <v>54.72024516188256</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="G3" t="n">
-        <v>54.72024516188256</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="H3" t="n">
         <v>54.72024516188256</v>
@@ -4421,7 +4421,7 @@
         <v>110.7999713201165</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0941980706948</v>
+        <v>110.7999713201165</v>
       </c>
       <c r="O3" t="n">
         <v>151.0941980706948</v>
@@ -4436,25 +4436,25 @@
         <v>150.0851794655044</v>
       </c>
       <c r="S3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="T3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="U3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="V3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="W3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="X3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.0851794655044</v>
+        <v>105.4246976840124</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="C4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="D4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="E4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="F4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="G4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="H4" t="n">
-        <v>38.95256377729743</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="I4" t="n">
-        <v>38.95256377729743</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="J4" t="n">
-        <v>38.95256377729743</v>
+        <v>18.93943881938233</v>
       </c>
       <c r="K4" t="n">
-        <v>24.02891759766779</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="L4" t="n">
-        <v>61.11543652438698</v>
+        <v>41.10231156647188</v>
       </c>
       <c r="M4" t="n">
-        <v>110.8108704413265</v>
+        <v>90.79774548341136</v>
       </c>
       <c r="N4" t="n">
-        <v>160.5063043582659</v>
+        <v>140.4931794003508</v>
       </c>
       <c r="O4" t="n">
-        <v>194.7288303079373</v>
+        <v>174.7157053500222</v>
       </c>
       <c r="P4" t="n">
-        <v>200.7896319876343</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="Q4" t="n">
-        <v>200.7896319876343</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="R4" t="n">
-        <v>200.7896319876343</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7896319876343</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="T4" t="n">
-        <v>150.0851794655044</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="U4" t="n">
-        <v>140.3614688215572</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="V4" t="n">
-        <v>89.65701629942731</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="W4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="X4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.95256377729743</v>
+        <v>79.36760198545944</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="C5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="D5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="E5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="F5" t="n">
-        <v>99.38072694337451</v>
+        <v>70.39099520066371</v>
       </c>
       <c r="G5" t="n">
         <v>55.38618166144055</v>
@@ -4576,10 +4576,10 @@
         <v>53.71122655669217</v>
       </c>
       <c r="M5" t="n">
-        <v>103.4066604736316</v>
+        <v>97.3798169216298</v>
       </c>
       <c r="N5" t="n">
-        <v>153.1020943905711</v>
+        <v>147.0752508385693</v>
       </c>
       <c r="O5" t="n">
         <v>196.7706847555088</v>
@@ -4591,28 +4591,28 @@
         <v>200.7896319876343</v>
       </c>
       <c r="R5" t="n">
-        <v>200.7896319876343</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="S5" t="n">
-        <v>150.0851794655044</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="T5" t="n">
-        <v>150.0851794655044</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="U5" t="n">
-        <v>150.0851794655044</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="V5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="W5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="X5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="C6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="D6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="E6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="F6" t="n">
-        <v>4.015792639752686</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="G6" t="n">
-        <v>4.015792639752686</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="H6" t="n">
         <v>4.015792639752686</v>
@@ -4646,52 +4646,52 @@
         <v>4.015792639752686</v>
       </c>
       <c r="J6" t="n">
-        <v>11.40910348623759</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="K6" t="n">
-        <v>61.10453740317706</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="L6" t="n">
-        <v>110.7999713201165</v>
+        <v>53.71122655669217</v>
       </c>
       <c r="M6" t="n">
-        <v>110.7999713201165</v>
+        <v>103.4066604736316</v>
       </c>
       <c r="N6" t="n">
-        <v>110.7999713201165</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="O6" t="n">
-        <v>110.7999713201165</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="P6" t="n">
-        <v>151.0941980706948</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="Q6" t="n">
         <v>200.7896319876343</v>
       </c>
       <c r="R6" t="n">
-        <v>150.0851794655044</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="S6" t="n">
-        <v>99.38072694337451</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="T6" t="n">
-        <v>48.67627442124464</v>
+        <v>156.1291502061423</v>
       </c>
       <c r="U6" t="n">
-        <v>4.015792639752686</v>
+        <v>156.1291502061423</v>
       </c>
       <c r="V6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="W6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="X6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.015792639752686</v>
+        <v>105.4246976840124</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="C7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="D7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="E7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="F7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="G7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="H7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="I7" t="n">
-        <v>4.015792639752686</v>
+        <v>18.93943881938233</v>
       </c>
       <c r="J7" t="n">
-        <v>4.015792639752686</v>
+        <v>18.93943881938233</v>
       </c>
       <c r="K7" t="n">
         <v>4.015792639752686</v>
@@ -4749,28 +4749,28 @@
         <v>180.7765070297192</v>
       </c>
       <c r="R7" t="n">
-        <v>156.1291502061423</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="S7" t="n">
-        <v>105.4246976840124</v>
+        <v>171.052796385772</v>
       </c>
       <c r="T7" t="n">
-        <v>54.72024516188256</v>
+        <v>171.052796385772</v>
       </c>
       <c r="U7" t="n">
-        <v>4.015792639752686</v>
+        <v>171.052796385772</v>
       </c>
       <c r="V7" t="n">
-        <v>4.015792639752686</v>
+        <v>120.3483438636421</v>
       </c>
       <c r="W7" t="n">
-        <v>4.015792639752686</v>
+        <v>120.3483438636421</v>
       </c>
       <c r="X7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="C8" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="D8" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="E8" t="n">
-        <v>105.4246976840124</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="F8" t="n">
-        <v>54.72024516188256</v>
+        <v>70.39099520066371</v>
       </c>
       <c r="G8" t="n">
-        <v>4.015792639752686</v>
+        <v>55.38618166144055</v>
       </c>
       <c r="H8" t="n">
-        <v>4.015792639752686</v>
+        <v>55.38618166144055</v>
       </c>
       <c r="I8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.681729139310681</v>
       </c>
       <c r="J8" t="n">
         <v>4.015792639752686</v>
       </c>
       <c r="K8" t="n">
-        <v>4.015792639752686</v>
+        <v>53.71122655669217</v>
       </c>
       <c r="L8" t="n">
-        <v>53.71122655669217</v>
+        <v>101.3987641537553</v>
       </c>
       <c r="M8" t="n">
-        <v>103.4066604736316</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="N8" t="n">
-        <v>153.1020943905711</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="O8" t="n">
         <v>200.7896319876343</v>
@@ -4828,28 +4828,28 @@
         <v>200.7896319876343</v>
       </c>
       <c r="R8" t="n">
-        <v>200.7896319876343</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="S8" t="n">
-        <v>200.7896319876343</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="T8" t="n">
-        <v>200.7896319876343</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="U8" t="n">
-        <v>200.7896319876343</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="V8" t="n">
-        <v>200.7896319876343</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="W8" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="X8" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
       <c r="Y8" t="n">
-        <v>150.0851794655044</v>
+        <v>77.75853406989688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="C9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="D9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="E9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="F9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="G9" t="n">
-        <v>105.4246976840124</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="H9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="I9" t="n">
         <v>4.015792639752686</v>
       </c>
       <c r="J9" t="n">
-        <v>4.015792639752686</v>
+        <v>11.40910348623759</v>
       </c>
       <c r="K9" t="n">
-        <v>4.015792639752686</v>
+        <v>61.10453740317706</v>
       </c>
       <c r="L9" t="n">
-        <v>51.70333023681584</v>
+        <v>101.3987641537553</v>
       </c>
       <c r="M9" t="n">
-        <v>51.70333023681584</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="N9" t="n">
-        <v>101.3987641537553</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="O9" t="n">
         <v>151.0941980706948</v>
@@ -4907,28 +4907,28 @@
         <v>200.7896319876343</v>
       </c>
       <c r="R9" t="n">
-        <v>156.1291502061423</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="S9" t="n">
-        <v>156.1291502061423</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="T9" t="n">
-        <v>156.1291502061423</v>
+        <v>48.67627442124464</v>
       </c>
       <c r="U9" t="n">
-        <v>156.1291502061423</v>
+        <v>48.67627442124464</v>
       </c>
       <c r="V9" t="n">
-        <v>156.1291502061423</v>
+        <v>48.67627442124464</v>
       </c>
       <c r="W9" t="n">
-        <v>156.1291502061423</v>
+        <v>48.67627442124464</v>
       </c>
       <c r="X9" t="n">
-        <v>156.1291502061423</v>
+        <v>48.67627442124464</v>
       </c>
       <c r="Y9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.015792639752686</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.015792639752686</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="C10" t="n">
-        <v>4.015792639752686</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="D10" t="n">
-        <v>4.015792639752686</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="E10" t="n">
-        <v>4.015792639752686</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="F10" t="n">
-        <v>4.015792639752686</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="G10" t="n">
-        <v>4.015792639752686</v>
+        <v>69.6438913415122</v>
       </c>
       <c r="H10" t="n">
-        <v>4.015792639752686</v>
+        <v>18.93943881938233</v>
       </c>
       <c r="I10" t="n">
-        <v>4.015792639752686</v>
+        <v>18.93943881938233</v>
       </c>
       <c r="J10" t="n">
-        <v>4.015792639752686</v>
+        <v>18.93943881938233</v>
       </c>
       <c r="K10" t="n">
         <v>4.015792639752686</v>
@@ -4983,31 +4983,31 @@
         <v>180.7765070297192</v>
       </c>
       <c r="Q10" t="n">
-        <v>180.7765070297192</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="R10" t="n">
-        <v>180.7765070297192</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="S10" t="n">
-        <v>180.7765070297192</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="T10" t="n">
         <v>130.0720545075893</v>
       </c>
       <c r="U10" t="n">
-        <v>79.36760198545944</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="V10" t="n">
-        <v>28.66314946332957</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="W10" t="n">
-        <v>4.015792639752686</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="X10" t="n">
-        <v>4.015792639752686</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.015792639752686</v>
+        <v>130.0720545075893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1975.324752429885</v>
+        <v>995.7487067409591</v>
       </c>
       <c r="C11" t="n">
-        <v>1629.742270963008</v>
+        <v>625.0566909036432</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.535470200787</v>
+        <v>625.0566909036432</v>
       </c>
       <c r="E11" t="n">
-        <v>882.5475552964562</v>
+        <v>238.0687759993124</v>
       </c>
       <c r="F11" t="n">
-        <v>471.1396123868189</v>
+        <v>238.0687759993124</v>
       </c>
       <c r="G11" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H11" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I11" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J11" t="n">
-        <v>169.6321066816284</v>
+        <v>142.1063263409001</v>
       </c>
       <c r="K11" t="n">
-        <v>438.4373378085478</v>
+        <v>438.4373378085487</v>
       </c>
       <c r="L11" t="n">
-        <v>858.0312390377816</v>
+        <v>858.0312390377825</v>
       </c>
       <c r="M11" t="n">
-        <v>1340.122595102721</v>
+        <v>1340.122595102722</v>
       </c>
       <c r="N11" t="n">
-        <v>1814.497518327516</v>
+        <v>1814.497518327517</v>
       </c>
       <c r="O11" t="n">
         <v>2216.307955276789</v>
@@ -5065,28 +5065,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R11" t="n">
-        <v>2619.823381966507</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S11" t="n">
-        <v>2619.823381966507</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="T11" t="n">
-        <v>2619.823381966507</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.91775419881</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.91775419881</v>
+        <v>2112.019541208756</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.91775419881</v>
+        <v>1757.948715955671</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.91775419881</v>
+        <v>1383.341040065601</v>
       </c>
       <c r="Y11" t="n">
-        <v>1975.324752429885</v>
+        <v>1383.341040065601</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>978.8891333950135</v>
+        <v>978.8891333950137</v>
       </c>
       <c r="C12" t="n">
-        <v>806.1360183168306</v>
+        <v>806.1360183168309</v>
       </c>
       <c r="D12" t="n">
-        <v>658.5477116757745</v>
+        <v>658.5477116757747</v>
       </c>
       <c r="E12" t="n">
-        <v>500.9381826786292</v>
+        <v>500.9381826786293</v>
       </c>
       <c r="F12" t="n">
-        <v>355.9823926952461</v>
+        <v>355.9823926952463</v>
       </c>
       <c r="G12" t="n">
-        <v>219.3363850537919</v>
+        <v>219.3363850537917</v>
       </c>
       <c r="H12" t="n">
-        <v>115.0128496747349</v>
+        <v>115.0128496747348</v>
       </c>
       <c r="I12" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J12" t="n">
-        <v>130.4488591182128</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K12" t="n">
         <v>388.5751740658498</v>
       </c>
       <c r="L12" t="n">
-        <v>796.5074662419395</v>
+        <v>630.4847529906257</v>
       </c>
       <c r="M12" t="n">
-        <v>1325.345404362973</v>
+        <v>1159.322691111659</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.556127851791</v>
+        <v>1717.556127851792</v>
       </c>
       <c r="O12" t="n">
-        <v>2160.60264402163</v>
+        <v>2160.602644021631</v>
       </c>
       <c r="P12" t="n">
         <v>2499.759991840071</v>
@@ -5147,10 +5147,10 @@
         <v>2625.903974260209</v>
       </c>
       <c r="S12" t="n">
-        <v>2469.188412103216</v>
+        <v>2469.188412103217</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.829776143075</v>
+        <v>2271.829776143076</v>
       </c>
       <c r="U12" t="n">
         <v>2044.952754028412</v>
@@ -5162,7 +5162,7 @@
         <v>1558.187018887346</v>
       </c>
       <c r="X12" t="n">
-        <v>1351.660120292923</v>
+        <v>1351.660120292924</v>
       </c>
       <c r="Y12" t="n">
         <v>1145.931684516574</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.49833529360867</v>
+        <v>204.0090085405979</v>
       </c>
       <c r="C13" t="n">
-        <v>53.49833529360867</v>
+        <v>204.0090085405979</v>
       </c>
       <c r="D13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="E13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="F13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J13" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="K13" t="n">
         <v>110.5822431635359</v>
@@ -5220,31 +5220,31 @@
         <v>736.1662419214828</v>
       </c>
       <c r="Q13" t="n">
-        <v>708.333638005954</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="R13" t="n">
-        <v>561.5073359037284</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="S13" t="n">
-        <v>347.8788828191238</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="T13" t="n">
-        <v>347.8788828191238</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="U13" t="n">
-        <v>58.97154606650412</v>
+        <v>447.2589051688631</v>
       </c>
       <c r="V13" t="n">
-        <v>53.49833529360867</v>
+        <v>204.0090085405979</v>
       </c>
       <c r="W13" t="n">
-        <v>53.49833529360867</v>
+        <v>204.0090085405979</v>
       </c>
       <c r="X13" t="n">
-        <v>53.49833529360867</v>
+        <v>204.0090085405979</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.49833529360867</v>
+        <v>204.0090085405979</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1310.974062907534</v>
+        <v>639.9823773439848</v>
       </c>
       <c r="C14" t="n">
-        <v>1310.974062907534</v>
+        <v>639.9823773439848</v>
       </c>
       <c r="D14" t="n">
-        <v>1310.974062907534</v>
+        <v>639.9823773439848</v>
       </c>
       <c r="E14" t="n">
-        <v>923.9861480032027</v>
+        <v>639.9823773439848</v>
       </c>
       <c r="F14" t="n">
-        <v>512.5782050935654</v>
+        <v>471.139612386819</v>
       </c>
       <c r="G14" t="n">
-        <v>94.93692800035518</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H14" t="n">
-        <v>94.93692800035518</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I14" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J14" t="n">
         <v>169.6321066816284</v>
       </c>
       <c r="K14" t="n">
-        <v>438.4373378085478</v>
+        <v>465.963118149277</v>
       </c>
       <c r="L14" t="n">
-        <v>858.0312390377816</v>
+        <v>885.5570193785109</v>
       </c>
       <c r="M14" t="n">
-        <v>1340.122595102721</v>
+        <v>1340.122595102722</v>
       </c>
       <c r="N14" t="n">
-        <v>1814.497518327516</v>
+        <v>1814.497518327517</v>
       </c>
       <c r="O14" t="n">
         <v>2216.307955276789</v>
@@ -5302,28 +5302,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R14" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S14" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="T14" t="n">
-        <v>2674.916764680434</v>
+        <v>2400.751841348404</v>
       </c>
       <c r="U14" t="n">
-        <v>2421.011136912736</v>
+        <v>2146.846213580707</v>
       </c>
       <c r="V14" t="n">
-        <v>2089.1593980011</v>
+        <v>2146.846213580707</v>
       </c>
       <c r="W14" t="n">
-        <v>2089.1593980011</v>
+        <v>1792.775388327621</v>
       </c>
       <c r="X14" t="n">
-        <v>2089.1593980011</v>
+        <v>1418.167712437551</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.566396232175</v>
+        <v>1027.574710668626</v>
       </c>
     </row>
     <row r="15">
@@ -5354,10 +5354,10 @@
         <v>115.0128496747349</v>
       </c>
       <c r="I15" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J15" t="n">
-        <v>130.4488591182128</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K15" t="n">
         <v>388.5751740658498</v>
@@ -5369,13 +5369,13 @@
         <v>1325.345404362973</v>
       </c>
       <c r="N15" t="n">
-        <v>1883.578841103105</v>
+        <v>1717.556127851792</v>
       </c>
       <c r="O15" t="n">
-        <v>2326.625357272944</v>
+        <v>2160.602644021631</v>
       </c>
       <c r="P15" t="n">
-        <v>2665.782705091385</v>
+        <v>2499.759991840071</v>
       </c>
       <c r="Q15" t="n">
         <v>2674.916764680434</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.1662419214828</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="C16" t="n">
-        <v>736.1662419214828</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="D16" t="n">
-        <v>736.1662419214828</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="E16" t="n">
-        <v>664.1300822009912</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="F16" t="n">
-        <v>516.4947070395725</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G16" t="n">
-        <v>347.5390230456562</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H16" t="n">
-        <v>189.87141694901</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I16" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J16" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="K16" t="n">
         <v>110.5822431635359</v>
@@ -5466,22 +5466,22 @@
         <v>736.1662419214828</v>
       </c>
       <c r="T16" t="n">
-        <v>736.1662419214828</v>
+        <v>631.3880729426077</v>
       </c>
       <c r="U16" t="n">
-        <v>736.1662419214828</v>
+        <v>342.480736189988</v>
       </c>
       <c r="V16" t="n">
-        <v>736.1662419214828</v>
+        <v>342.480736189988</v>
       </c>
       <c r="W16" t="n">
-        <v>736.1662419214828</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="X16" t="n">
-        <v>736.1662419214828</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.1662419214828</v>
+        <v>53.49833529360868</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1222.586208944892</v>
+        <v>1212.100993869797</v>
       </c>
       <c r="C17" t="n">
-        <v>851.8941931075767</v>
+        <v>1212.100993869797</v>
       </c>
       <c r="D17" t="n">
         <v>851.8941931075767</v>
       </c>
       <c r="E17" t="n">
-        <v>464.9062782032459</v>
+        <v>464.906278203246</v>
       </c>
       <c r="F17" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G17" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H17" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I17" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J17" t="n">
-        <v>169.6321066816284</v>
+        <v>142.1063263409001</v>
       </c>
       <c r="K17" t="n">
-        <v>465.963118149277</v>
+        <v>438.4373378085487</v>
       </c>
       <c r="L17" t="n">
-        <v>885.5570193785109</v>
+        <v>858.0312390377825</v>
       </c>
       <c r="M17" t="n">
-        <v>1367.64837544345</v>
+        <v>1340.122595102722</v>
       </c>
       <c r="N17" t="n">
-        <v>1842.023298668246</v>
+        <v>1814.497518327517</v>
       </c>
       <c r="O17" t="n">
         <v>2216.307955276789</v>
@@ -5539,28 +5539,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R17" t="n">
-        <v>2619.823381966507</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S17" t="n">
-        <v>2443.871280120391</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="T17" t="n">
-        <v>2375.379219928529</v>
+        <v>2400.751841348404</v>
       </c>
       <c r="U17" t="n">
-        <v>2375.379219928529</v>
+        <v>2146.846213580707</v>
       </c>
       <c r="V17" t="n">
-        <v>2375.379219928529</v>
+        <v>1814.994474669071</v>
       </c>
       <c r="W17" t="n">
-        <v>2375.379219928529</v>
+        <v>1602.693995638722</v>
       </c>
       <c r="X17" t="n">
-        <v>2000.771544038459</v>
+        <v>1602.693995638722</v>
       </c>
       <c r="Y17" t="n">
-        <v>1610.178542269534</v>
+        <v>1212.100993869797</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>978.8891333950135</v>
+        <v>978.8891333950137</v>
       </c>
       <c r="C18" t="n">
-        <v>806.1360183168306</v>
+        <v>806.1360183168309</v>
       </c>
       <c r="D18" t="n">
-        <v>658.5477116757745</v>
+        <v>658.5477116757747</v>
       </c>
       <c r="E18" t="n">
-        <v>500.9381826786292</v>
+        <v>500.9381826786293</v>
       </c>
       <c r="F18" t="n">
-        <v>355.9823926952461</v>
+        <v>355.9823926952463</v>
       </c>
       <c r="G18" t="n">
         <v>219.3363850537917</v>
       </c>
       <c r="H18" t="n">
-        <v>115.0128496747348</v>
+        <v>115.0128496747349</v>
       </c>
       <c r="I18" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J18" t="n">
-        <v>53.49833529360867</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5524608145354</v>
+        <v>388.5751740658498</v>
       </c>
       <c r="L18" t="n">
-        <v>630.4847529906252</v>
+        <v>796.5074662419395</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N18" t="n">
-        <v>1717.556127851791</v>
+        <v>1883.578841103105</v>
       </c>
       <c r="O18" t="n">
-        <v>2160.60264402163</v>
+        <v>2326.625357272944</v>
       </c>
       <c r="P18" t="n">
         <v>2499.759991840071</v>
@@ -5621,10 +5621,10 @@
         <v>2625.903974260209</v>
       </c>
       <c r="S18" t="n">
-        <v>2469.188412103216</v>
+        <v>2469.188412103217</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.829776143075</v>
+        <v>2271.829776143076</v>
       </c>
       <c r="U18" t="n">
         <v>2044.952754028412</v>
@@ -5636,7 +5636,7 @@
         <v>1558.187018887346</v>
       </c>
       <c r="X18" t="n">
-        <v>1351.660120292923</v>
+        <v>1351.660120292924</v>
       </c>
       <c r="Y18" t="n">
         <v>1145.931684516574</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="C19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="D19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="E19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="F19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J19" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="K19" t="n">
         <v>110.5822431635359</v>
@@ -5706,19 +5706,19 @@
         <v>736.1662419214828</v>
       </c>
       <c r="U19" t="n">
-        <v>447.2589051688631</v>
+        <v>597.971999893967</v>
       </c>
       <c r="V19" t="n">
-        <v>447.2589051688631</v>
+        <v>342.480736189988</v>
       </c>
       <c r="W19" t="n">
-        <v>447.2589051688631</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="X19" t="n">
-        <v>447.2589051688631</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="Y19" t="n">
-        <v>226.300648736774</v>
+        <v>53.49833529360868</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1209.728948161811</v>
+        <v>519.7708699108738</v>
       </c>
       <c r="C20" t="n">
-        <v>1209.728948161811</v>
+        <v>149.078854073558</v>
       </c>
       <c r="D20" t="n">
-        <v>1209.728948161811</v>
+        <v>149.078854073558</v>
       </c>
       <c r="E20" t="n">
-        <v>1209.728948161811</v>
+        <v>149.078854073558</v>
       </c>
       <c r="F20" t="n">
-        <v>798.3210052521733</v>
+        <v>149.078854073558</v>
       </c>
       <c r="G20" t="n">
-        <v>380.6797281589631</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H20" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I20" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J20" t="n">
         <v>169.6321066816284</v>
@@ -5761,13 +5761,13 @@
         <v>885.5570193785109</v>
       </c>
       <c r="M20" t="n">
-        <v>1367.64837544345</v>
+        <v>1340.122595102722</v>
       </c>
       <c r="N20" t="n">
-        <v>1842.023298668246</v>
+        <v>1814.497518327517</v>
       </c>
       <c r="O20" t="n">
-        <v>2243.833735617518</v>
+        <v>2216.307955276789</v>
       </c>
       <c r="P20" t="n">
         <v>2522.30507383198</v>
@@ -5776,28 +5776,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R20" t="n">
-        <v>2619.823381966507</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S20" t="n">
         <v>2443.871280120391</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.799739502287</v>
+        <v>2224.799739502288</v>
       </c>
       <c r="U20" t="n">
         <v>1970.89411173459</v>
       </c>
       <c r="V20" t="n">
-        <v>1639.042372822954</v>
+        <v>1639.042372822955</v>
       </c>
       <c r="W20" t="n">
-        <v>1600.321949930736</v>
+        <v>1284.971547569869</v>
       </c>
       <c r="X20" t="n">
-        <v>1600.321949930736</v>
+        <v>910.3638716797989</v>
       </c>
       <c r="Y20" t="n">
-        <v>1209.728948161811</v>
+        <v>519.7708699108738</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>355.9823926952462</v>
       </c>
       <c r="G21" t="n">
-        <v>219.3363850537918</v>
+        <v>219.3363850537919</v>
       </c>
       <c r="H21" t="n">
-        <v>115.0128496747348</v>
+        <v>115.0128496747349</v>
       </c>
       <c r="I21" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J21" t="n">
-        <v>53.49833529360867</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5524608145354</v>
+        <v>388.5751740658498</v>
       </c>
       <c r="L21" t="n">
-        <v>630.4847529906252</v>
+        <v>796.5074662419395</v>
       </c>
       <c r="M21" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N21" t="n">
         <v>1717.556127851791</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="C22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="D22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="E22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="F22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="K22" t="n">
         <v>110.5822431635359</v>
@@ -5931,31 +5931,31 @@
         <v>736.1662419214828</v>
       </c>
       <c r="Q22" t="n">
-        <v>708.333638005954</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="R22" t="n">
-        <v>561.5073359037284</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="S22" t="n">
-        <v>347.8788828191238</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="T22" t="n">
-        <v>119.9308183169723</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="U22" t="n">
-        <v>53.49833529360867</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="V22" t="n">
-        <v>53.49833529360867</v>
+        <v>480.6749782175038</v>
       </c>
       <c r="W22" t="n">
-        <v>53.49833529360867</v>
+        <v>191.6925773211245</v>
       </c>
       <c r="X22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.699671086677</v>
+        <v>1202.038428986355</v>
       </c>
       <c r="C23" t="n">
-        <v>1311.699671086677</v>
+        <v>831.3464131490396</v>
       </c>
       <c r="D23" t="n">
-        <v>951.4928703244564</v>
+        <v>471.139612386819</v>
       </c>
       <c r="E23" t="n">
-        <v>951.4928703244564</v>
+        <v>471.139612386819</v>
       </c>
       <c r="F23" t="n">
-        <v>951.4928703244564</v>
+        <v>471.139612386819</v>
       </c>
       <c r="G23" t="n">
-        <v>533.8515932312461</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H23" t="n">
-        <v>206.6702003658916</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I23" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J23" t="n">
         <v>169.6321066816284</v>
@@ -5995,46 +5995,46 @@
         <v>465.963118149277</v>
       </c>
       <c r="L23" t="n">
-        <v>858.0312390377816</v>
+        <v>885.5570193785109</v>
       </c>
       <c r="M23" t="n">
-        <v>1340.122595102721</v>
+        <v>1367.64837544345</v>
       </c>
       <c r="N23" t="n">
-        <v>1814.497518327516</v>
+        <v>1842.023298668246</v>
       </c>
       <c r="O23" t="n">
-        <v>2216.307955276789</v>
+        <v>2243.833735617518</v>
       </c>
       <c r="P23" t="n">
-        <v>2522.30507383198</v>
+        <v>2549.830854172709</v>
       </c>
       <c r="Q23" t="n">
         <v>2674.916764680434</v>
       </c>
       <c r="R23" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S23" t="n">
-        <v>2546.87684868719</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="T23" t="n">
-        <v>2327.805308069086</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="U23" t="n">
-        <v>2073.899680301388</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="V23" t="n">
-        <v>2073.899680301388</v>
+        <v>2287.971643054872</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.899680301388</v>
+        <v>1964.238438201067</v>
       </c>
       <c r="X23" t="n">
-        <v>1699.292004411318</v>
+        <v>1589.630762310997</v>
       </c>
       <c r="Y23" t="n">
-        <v>1699.292004411318</v>
+        <v>1589.630762310997</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>978.8891333950137</v>
+        <v>978.8891333950132</v>
       </c>
       <c r="C24" t="n">
-        <v>806.1360183168308</v>
+        <v>806.1360183168305</v>
       </c>
       <c r="D24" t="n">
-        <v>658.5477116757746</v>
+        <v>658.5477116757743</v>
       </c>
       <c r="E24" t="n">
-        <v>500.9381826786293</v>
+        <v>500.9381826786289</v>
       </c>
       <c r="F24" t="n">
-        <v>355.9823926952462</v>
+        <v>355.9823926952459</v>
       </c>
       <c r="G24" t="n">
-        <v>219.3363850537919</v>
+        <v>219.3363850537912</v>
       </c>
       <c r="H24" t="n">
-        <v>115.0128496747349</v>
+        <v>115.0128496747348</v>
       </c>
       <c r="I24" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J24" t="n">
-        <v>130.4488591182128</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K24" t="n">
         <v>388.5751740658498</v>
@@ -6080,10 +6080,10 @@
         <v>1325.345404362973</v>
       </c>
       <c r="N24" t="n">
-        <v>1717.556127851791</v>
+        <v>1717.556127851792</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.60264402163</v>
+        <v>2160.602644021631</v>
       </c>
       <c r="P24" t="n">
         <v>2499.759991840071</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2309.66375838304</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="C25" t="n">
-        <v>2309.66375838304</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="D25" t="n">
-        <v>2309.66375838304</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="E25" t="n">
-        <v>2161.204542046476</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="F25" t="n">
-        <v>2161.204542046476</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G25" t="n">
-        <v>1992.248858052559</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H25" t="n">
-        <v>1992.248858052559</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I25" t="n">
-        <v>1992.248858052559</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J25" t="n">
-        <v>1992.248858052559</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="K25" t="n">
-        <v>2049.332765922486</v>
+        <v>110.5822431635359</v>
       </c>
       <c r="L25" t="n">
-        <v>2178.184129830816</v>
+        <v>239.4336070718656</v>
       </c>
       <c r="M25" t="n">
-        <v>2324.63272640019</v>
+        <v>385.8822036412394</v>
       </c>
       <c r="N25" t="n">
-        <v>2472.740364566693</v>
+        <v>533.989841807742</v>
       </c>
       <c r="O25" t="n">
-        <v>2594.205143773921</v>
+        <v>655.4546210149699</v>
       </c>
       <c r="P25" t="n">
-        <v>2674.916764680434</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="Q25" t="n">
-        <v>2674.916764680434</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="R25" t="n">
-        <v>2674.916764680434</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="S25" t="n">
-        <v>2674.916764680434</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="T25" t="n">
-        <v>2674.916764680434</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="U25" t="n">
-        <v>2386.009427927814</v>
+        <v>597.971999893967</v>
       </c>
       <c r="V25" t="n">
-        <v>2309.66375838304</v>
+        <v>342.480736189988</v>
       </c>
       <c r="W25" t="n">
-        <v>2309.66375838304</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="X25" t="n">
-        <v>2309.66375838304</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="Y25" t="n">
-        <v>2309.66375838304</v>
+        <v>53.49833529360868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>308.1306384323483</v>
+        <v>1651.738324735113</v>
       </c>
       <c r="C26" t="n">
-        <v>308.1306384323483</v>
+        <v>1281.046308897797</v>
       </c>
       <c r="D26" t="n">
-        <v>308.1306384323483</v>
+        <v>920.8395081355768</v>
       </c>
       <c r="E26" t="n">
-        <v>53.49833529360867</v>
+        <v>533.8515932312461</v>
       </c>
       <c r="F26" t="n">
-        <v>53.49833529360867</v>
+        <v>533.8515932312461</v>
       </c>
       <c r="G26" t="n">
-        <v>53.49833529360867</v>
+        <v>533.8515932312461</v>
       </c>
       <c r="H26" t="n">
-        <v>53.49833529360867</v>
+        <v>206.6702003658916</v>
       </c>
       <c r="I26" t="n">
         <v>53.49833529360867</v>
@@ -6229,22 +6229,22 @@
         <v>169.6321066816284</v>
       </c>
       <c r="K26" t="n">
-        <v>465.963118149277</v>
+        <v>438.4373378085478</v>
       </c>
       <c r="L26" t="n">
-        <v>885.5570193785109</v>
+        <v>858.0312390377816</v>
       </c>
       <c r="M26" t="n">
-        <v>1367.64837544345</v>
+        <v>1340.122595102721</v>
       </c>
       <c r="N26" t="n">
-        <v>1842.023298668246</v>
+        <v>1814.497518327516</v>
       </c>
       <c r="O26" t="n">
-        <v>2243.833735617518</v>
+        <v>2216.307955276789</v>
       </c>
       <c r="P26" t="n">
-        <v>2549.830854172709</v>
+        <v>2522.30507383198</v>
       </c>
       <c r="Q26" t="n">
         <v>2674.916764680434</v>
@@ -6253,25 +6253,25 @@
         <v>2619.823381966507</v>
       </c>
       <c r="S26" t="n">
-        <v>2619.823381966507</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="T26" t="n">
-        <v>2400.751841348404</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="U26" t="n">
-        <v>2146.846213580706</v>
+        <v>2413.938333949824</v>
       </c>
       <c r="V26" t="n">
-        <v>1814.994474669071</v>
+        <v>2413.938333949824</v>
       </c>
       <c r="W26" t="n">
-        <v>1460.923649415985</v>
+        <v>2413.938333949824</v>
       </c>
       <c r="X26" t="n">
-        <v>1086.315973525915</v>
+        <v>2039.330658059755</v>
       </c>
       <c r="Y26" t="n">
-        <v>695.7229717569898</v>
+        <v>2039.330658059755</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>978.8891333950133</v>
+        <v>978.8891333950137</v>
       </c>
       <c r="C27" t="n">
-        <v>806.1360183168306</v>
+        <v>806.1360183168309</v>
       </c>
       <c r="D27" t="n">
-        <v>658.5477116757745</v>
+        <v>658.5477116757747</v>
       </c>
       <c r="E27" t="n">
-        <v>500.9381826786292</v>
+        <v>500.9381826786293</v>
       </c>
       <c r="F27" t="n">
-        <v>355.9823926952461</v>
+        <v>355.9823926952463</v>
       </c>
       <c r="G27" t="n">
         <v>219.3363850537917</v>
@@ -6311,10 +6311,10 @@
         <v>388.5751740658498</v>
       </c>
       <c r="L27" t="n">
-        <v>630.4847529906252</v>
+        <v>796.5074662419395</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N27" t="n">
         <v>1717.556127851791</v>
@@ -6332,10 +6332,10 @@
         <v>2625.903974260209</v>
       </c>
       <c r="S27" t="n">
-        <v>2469.188412103216</v>
+        <v>2469.188412103217</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.829776143075</v>
+        <v>2271.829776143076</v>
       </c>
       <c r="U27" t="n">
         <v>2044.952754028412</v>
@@ -6347,7 +6347,7 @@
         <v>1558.187018887346</v>
       </c>
       <c r="X27" t="n">
-        <v>1351.660120292923</v>
+        <v>1351.660120292924</v>
       </c>
       <c r="Y27" t="n">
         <v>1145.931684516574</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.2503722252722</v>
+        <v>370.160531597656</v>
       </c>
       <c r="C28" t="n">
-        <v>252.2503722252722</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="D28" t="n">
-        <v>252.2503722252722</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="E28" t="n">
-        <v>252.2503722252722</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="F28" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360867</v>
       </c>
       <c r="G28" t="n">
         <v>53.49833529360867</v>
@@ -6411,25 +6411,25 @@
         <v>736.1662419214828</v>
       </c>
       <c r="S28" t="n">
-        <v>736.1662419214828</v>
+        <v>552.0632502751145</v>
       </c>
       <c r="T28" t="n">
-        <v>736.1662419214828</v>
+        <v>552.0632502751145</v>
       </c>
       <c r="U28" t="n">
-        <v>736.1662419214828</v>
+        <v>552.0632502751145</v>
       </c>
       <c r="V28" t="n">
-        <v>480.6749782175038</v>
+        <v>552.0632502751145</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6749782175038</v>
+        <v>552.0632502751145</v>
       </c>
       <c r="X28" t="n">
-        <v>252.2503722252722</v>
+        <v>552.0632502751145</v>
       </c>
       <c r="Y28" t="n">
-        <v>252.2503722252722</v>
+        <v>552.0632502751145</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1522.123753696797</v>
+        <v>894.3785458009439</v>
       </c>
       <c r="C29" t="n">
-        <v>1151.431737859481</v>
+        <v>894.3785458009439</v>
       </c>
       <c r="D29" t="n">
-        <v>791.2249370972609</v>
+        <v>851.8941931075767</v>
       </c>
       <c r="E29" t="n">
-        <v>404.2370221929301</v>
+        <v>464.906278203246</v>
       </c>
       <c r="F29" t="n">
-        <v>404.2370221929301</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G29" t="n">
         <v>53.49833529360868</v>
@@ -6487,28 +6487,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R29" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S29" t="n">
-        <v>2674.916764680434</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="T29" t="n">
-        <v>2674.916764680434</v>
+        <v>2224.799739502288</v>
       </c>
       <c r="U29" t="n">
-        <v>2674.916764680434</v>
+        <v>1970.89411173459</v>
       </c>
       <c r="V29" t="n">
-        <v>2674.916764680434</v>
+        <v>1639.042372822955</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.916764680434</v>
+        <v>1284.971547569869</v>
       </c>
       <c r="X29" t="n">
-        <v>2300.309088790364</v>
+        <v>1284.971547569869</v>
       </c>
       <c r="Y29" t="n">
-        <v>1909.716087021439</v>
+        <v>894.3785458009439</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>978.8891333950138</v>
+        <v>978.8891333950132</v>
       </c>
       <c r="C30" t="n">
-        <v>806.136018316831</v>
+        <v>806.1360183168305</v>
       </c>
       <c r="D30" t="n">
-        <v>658.547711675775</v>
+        <v>658.5477116757743</v>
       </c>
       <c r="E30" t="n">
-        <v>500.9381826786297</v>
+        <v>500.9381826786289</v>
       </c>
       <c r="F30" t="n">
-        <v>355.9823926952465</v>
+        <v>355.9823926952459</v>
       </c>
       <c r="G30" t="n">
-        <v>219.3363850537919</v>
+        <v>219.3363850537912</v>
       </c>
       <c r="H30" t="n">
-        <v>115.0128496747349</v>
+        <v>115.0128496747348</v>
       </c>
       <c r="I30" t="n">
         <v>53.49833529360868</v>
       </c>
       <c r="J30" t="n">
-        <v>53.49833529360868</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5524608145359</v>
+        <v>388.5751740658498</v>
       </c>
       <c r="L30" t="n">
-        <v>630.4847529906257</v>
+        <v>796.5074662419395</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N30" t="n">
         <v>1717.556127851792</v>
@@ -6569,10 +6569,10 @@
         <v>2625.903974260209</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.188412103217</v>
+        <v>2469.188412103216</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.829776143076</v>
+        <v>2271.829776143075</v>
       </c>
       <c r="U30" t="n">
         <v>2044.952754028412</v>
@@ -6584,7 +6584,7 @@
         <v>1558.187018887346</v>
       </c>
       <c r="X30" t="n">
-        <v>1351.660120292924</v>
+        <v>1351.660120292923</v>
       </c>
       <c r="Y30" t="n">
         <v>1145.931684516574</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.49833529360868</v>
+        <v>380.1927625328835</v>
       </c>
       <c r="C31" t="n">
-        <v>53.49833529360868</v>
+        <v>211.1659413902549</v>
       </c>
       <c r="D31" t="n">
-        <v>53.49833529360868</v>
+        <v>211.1659413902549</v>
       </c>
       <c r="E31" t="n">
-        <v>53.49833529360868</v>
+        <v>211.1659413902549</v>
       </c>
       <c r="F31" t="n">
-        <v>53.49833529360868</v>
+        <v>211.1659413902549</v>
       </c>
       <c r="G31" t="n">
-        <v>53.49833529360868</v>
+        <v>211.1659413902549</v>
       </c>
       <c r="H31" t="n">
         <v>53.49833529360868</v>
@@ -6648,25 +6648,25 @@
         <v>736.1662419214828</v>
       </c>
       <c r="S31" t="n">
-        <v>522.5377888368781</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="T31" t="n">
-        <v>294.5897243347266</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="U31" t="n">
-        <v>294.5897243347266</v>
+        <v>608.6173685251151</v>
       </c>
       <c r="V31" t="n">
-        <v>294.5897243347266</v>
+        <v>608.6173685251151</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5897243347266</v>
+        <v>608.6173685251151</v>
       </c>
       <c r="X31" t="n">
-        <v>66.16511834249502</v>
+        <v>380.1927625328835</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.49833529360868</v>
+        <v>380.1927625328835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1582.793009707113</v>
+        <v>1322.184886161772</v>
       </c>
       <c r="C32" t="n">
-        <v>1212.100993869797</v>
+        <v>951.4928703244564</v>
       </c>
       <c r="D32" t="n">
-        <v>851.8941931075767</v>
+        <v>951.4928703244564</v>
       </c>
       <c r="E32" t="n">
-        <v>464.9062782032459</v>
+        <v>951.4928703244564</v>
       </c>
       <c r="F32" t="n">
-        <v>53.49833529360867</v>
+        <v>951.4928703244564</v>
       </c>
       <c r="G32" t="n">
-        <v>53.49833529360867</v>
+        <v>533.8515932312461</v>
       </c>
       <c r="H32" t="n">
-        <v>53.49833529360867</v>
+        <v>206.6702003658916</v>
       </c>
       <c r="I32" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J32" t="n">
         <v>169.6321066816284</v>
@@ -6709,43 +6709,43 @@
         <v>885.5570193785109</v>
       </c>
       <c r="M32" t="n">
-        <v>1367.64837544345</v>
+        <v>1340.122595102722</v>
       </c>
       <c r="N32" t="n">
-        <v>1842.023298668246</v>
+        <v>1814.497518327517</v>
       </c>
       <c r="O32" t="n">
-        <v>2243.833735617518</v>
+        <v>2216.307955276789</v>
       </c>
       <c r="P32" t="n">
-        <v>2549.830854172709</v>
+        <v>2522.30507383198</v>
       </c>
       <c r="Q32" t="n">
         <v>2674.916764680434</v>
       </c>
       <c r="R32" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966508</v>
       </c>
       <c r="S32" t="n">
-        <v>2674.916764680434</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="T32" t="n">
-        <v>2674.916764680434</v>
+        <v>2224.799739502288</v>
       </c>
       <c r="U32" t="n">
-        <v>2674.916764680434</v>
+        <v>1970.89411173459</v>
       </c>
       <c r="V32" t="n">
-        <v>2674.916764680434</v>
+        <v>1709.777219486414</v>
       </c>
       <c r="W32" t="n">
-        <v>2674.916764680434</v>
+        <v>1709.777219486414</v>
       </c>
       <c r="X32" t="n">
-        <v>2360.97834480068</v>
+        <v>1709.777219486414</v>
       </c>
       <c r="Y32" t="n">
-        <v>1970.385343031754</v>
+        <v>1709.777219486414</v>
       </c>
     </row>
     <row r="33">
@@ -6761,25 +6761,25 @@
         <v>806.1360183168308</v>
       </c>
       <c r="D33" t="n">
-        <v>658.5477116757747</v>
+        <v>658.5477116757746</v>
       </c>
       <c r="E33" t="n">
-        <v>500.9381826786295</v>
+        <v>500.9381826786293</v>
       </c>
       <c r="F33" t="n">
-        <v>355.9823926952463</v>
+        <v>355.9823926952462</v>
       </c>
       <c r="G33" t="n">
-        <v>219.3363850537917</v>
+        <v>219.3363850537919</v>
       </c>
       <c r="H33" t="n">
-        <v>115.0128496747348</v>
+        <v>115.0128496747349</v>
       </c>
       <c r="I33" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J33" t="n">
-        <v>130.4488591182128</v>
+        <v>130.4488591182129</v>
       </c>
       <c r="K33" t="n">
         <v>388.5751740658498</v>
@@ -6788,16 +6788,16 @@
         <v>796.5074662419395</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N33" t="n">
-        <v>1717.556127851791</v>
+        <v>1883.578841103105</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.60264402163</v>
+        <v>2326.625357272944</v>
       </c>
       <c r="P33" t="n">
-        <v>2499.759991840071</v>
+        <v>2665.782705091385</v>
       </c>
       <c r="Q33" t="n">
         <v>2674.916764680434</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="C34" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="D34" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="E34" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="F34" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="G34" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="H34" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="I34" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="J34" t="n">
-        <v>53.49833529360867</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="K34" t="n">
         <v>110.5822431635359</v>
@@ -6879,31 +6879,31 @@
         <v>736.1662419214828</v>
       </c>
       <c r="Q34" t="n">
-        <v>708.333638005954</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="R34" t="n">
-        <v>561.5073359037284</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="S34" t="n">
-        <v>443.4122757196141</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="T34" t="n">
-        <v>443.4122757196141</v>
+        <v>508.2181774193313</v>
       </c>
       <c r="U34" t="n">
-        <v>443.4122757196141</v>
+        <v>219.3108406667116</v>
       </c>
       <c r="V34" t="n">
-        <v>443.4122757196141</v>
+        <v>219.3108406667116</v>
       </c>
       <c r="W34" t="n">
-        <v>443.4122757196141</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="X34" t="n">
-        <v>443.4122757196141</v>
+        <v>53.49833529360868</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4540192875249</v>
+        <v>53.49833529360868</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1171.385066797476</v>
+        <v>1209.728948161811</v>
       </c>
       <c r="C35" t="n">
-        <v>800.69305096016</v>
+        <v>1209.728948161811</v>
       </c>
       <c r="D35" t="n">
-        <v>440.4862501979395</v>
+        <v>1209.728948161811</v>
       </c>
       <c r="E35" t="n">
-        <v>53.49833529360867</v>
+        <v>1209.728948161811</v>
       </c>
       <c r="F35" t="n">
-        <v>53.49833529360867</v>
+        <v>798.3210052521733</v>
       </c>
       <c r="G35" t="n">
-        <v>53.49833529360867</v>
+        <v>380.6797281589631</v>
       </c>
       <c r="H35" t="n">
         <v>53.49833529360867</v>
@@ -6961,28 +6961,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R35" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966507</v>
       </c>
       <c r="S35" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966507</v>
       </c>
       <c r="T35" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966507</v>
       </c>
       <c r="U35" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966507</v>
       </c>
       <c r="V35" t="n">
-        <v>2343.065025768798</v>
+        <v>2287.971643054871</v>
       </c>
       <c r="W35" t="n">
-        <v>1988.994200515712</v>
+        <v>1933.900817801786</v>
       </c>
       <c r="X35" t="n">
-        <v>1949.570401891042</v>
+        <v>1933.900817801786</v>
       </c>
       <c r="Y35" t="n">
-        <v>1558.977400122117</v>
+        <v>1543.307816032861</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>978.8891333950143</v>
+        <v>978.8891333950137</v>
       </c>
       <c r="C36" t="n">
-        <v>806.1360183168315</v>
+        <v>806.1360183168309</v>
       </c>
       <c r="D36" t="n">
-        <v>658.5477116757754</v>
+        <v>658.5477116757747</v>
       </c>
       <c r="E36" t="n">
-        <v>500.9381826786301</v>
+        <v>500.9381826786293</v>
       </c>
       <c r="F36" t="n">
-        <v>355.982392695247</v>
+        <v>355.9823926952463</v>
       </c>
       <c r="G36" t="n">
-        <v>219.3363850537921</v>
+        <v>219.3363850537917</v>
       </c>
       <c r="H36" t="n">
-        <v>115.0128496747352</v>
+        <v>115.0128496747349</v>
       </c>
       <c r="I36" t="n">
         <v>53.49833529360867</v>
       </c>
       <c r="J36" t="n">
-        <v>130.4488591182128</v>
+        <v>53.49833529360867</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5524608145354</v>
+        <v>311.6246502412455</v>
       </c>
       <c r="L36" t="n">
-        <v>630.4847529906252</v>
+        <v>719.5569424173353</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.322691111659</v>
+        <v>1248.394880538369</v>
       </c>
       <c r="N36" t="n">
-        <v>1717.556127851791</v>
+        <v>1806.628317278502</v>
       </c>
       <c r="O36" t="n">
-        <v>2160.60264402163</v>
+        <v>2249.67483344834</v>
       </c>
       <c r="P36" t="n">
         <v>2499.759991840071</v>
@@ -7043,25 +7043,25 @@
         <v>2625.903974260209</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.188412103216</v>
+        <v>2469.188412103217</v>
       </c>
       <c r="T36" t="n">
         <v>2271.829776143076</v>
       </c>
       <c r="U36" t="n">
-        <v>2044.952754028413</v>
+        <v>2044.952754028412</v>
       </c>
       <c r="V36" t="n">
         <v>1810.701510554013</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.187018887347</v>
+        <v>1558.187018887346</v>
       </c>
       <c r="X36" t="n">
         <v>1351.660120292924</v>
       </c>
       <c r="Y36" t="n">
-        <v>1145.931684516575</v>
+        <v>1145.931684516574</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>287.2599209872421</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0090085405979</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="D37" t="n">
-        <v>53.49833529360867</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="E37" t="n">
-        <v>53.49833529360867</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="F37" t="n">
         <v>53.49833529360867</v>
@@ -7122,25 +7122,25 @@
         <v>736.1662419214828</v>
       </c>
       <c r="S37" t="n">
-        <v>736.1662419214828</v>
+        <v>522.5377888368781</v>
       </c>
       <c r="T37" t="n">
-        <v>508.2181774193313</v>
+        <v>294.5897243347266</v>
       </c>
       <c r="U37" t="n">
-        <v>508.2181774193313</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="V37" t="n">
-        <v>508.2181774193313</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="W37" t="n">
-        <v>508.2181774193313</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="X37" t="n">
-        <v>508.2181774193313</v>
+        <v>201.1337104550274</v>
       </c>
       <c r="Y37" t="n">
-        <v>287.2599209872421</v>
+        <v>201.1337104550274</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2327.615679665678</v>
+        <v>1310.974062907534</v>
       </c>
       <c r="C38" t="n">
-        <v>1956.923663828362</v>
+        <v>940.2820470702178</v>
       </c>
       <c r="D38" t="n">
-        <v>1596.716863066142</v>
+        <v>580.0752463079972</v>
       </c>
       <c r="E38" t="n">
-        <v>1209.728948161811</v>
+        <v>193.0873314036664</v>
       </c>
       <c r="F38" t="n">
-        <v>798.3210052521733</v>
+        <v>193.0873314036664</v>
       </c>
       <c r="G38" t="n">
-        <v>380.6797281589631</v>
+        <v>193.0873314036664</v>
       </c>
       <c r="H38" t="n">
-        <v>53.49833529360867</v>
+        <v>193.0873314036664</v>
       </c>
       <c r="I38" t="n">
         <v>53.49833529360867</v>
@@ -7183,10 +7183,10 @@
         <v>885.5570193785109</v>
       </c>
       <c r="M38" t="n">
-        <v>1367.64837544345</v>
+        <v>1340.122595102721</v>
       </c>
       <c r="N38" t="n">
-        <v>1842.023298668246</v>
+        <v>1814.497518327516</v>
       </c>
       <c r="O38" t="n">
         <v>2216.307955276789</v>
@@ -7201,25 +7201,25 @@
         <v>2674.916764680434</v>
       </c>
       <c r="S38" t="n">
-        <v>2581.521307433375</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="T38" t="n">
-        <v>2581.521307433375</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="U38" t="n">
-        <v>2327.615679665678</v>
+        <v>2421.011136912736</v>
       </c>
       <c r="V38" t="n">
-        <v>2327.615679665678</v>
+        <v>2089.1593980011</v>
       </c>
       <c r="W38" t="n">
-        <v>2327.615679665678</v>
+        <v>2089.1593980011</v>
       </c>
       <c r="X38" t="n">
-        <v>2327.615679665678</v>
+        <v>2089.1593980011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2327.615679665678</v>
+        <v>1698.566396232175</v>
       </c>
     </row>
     <row r="39">
@@ -7265,7 +7265,7 @@
         <v>1325.345404362973</v>
       </c>
       <c r="N39" t="n">
-        <v>1883.578841103105</v>
+        <v>1717.556127851791</v>
       </c>
       <c r="O39" t="n">
         <v>2160.60264402163</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="C40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="D40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="E40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="F40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="G40" t="n">
-        <v>178.9231988252075</v>
+        <v>53.49833529360867</v>
       </c>
       <c r="H40" t="n">
         <v>53.49833529360867</v>
@@ -7353,31 +7353,31 @@
         <v>736.1662419214828</v>
       </c>
       <c r="Q40" t="n">
-        <v>708.333638005954</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="R40" t="n">
-        <v>561.5073359037284</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="S40" t="n">
-        <v>347.8788828191238</v>
+        <v>522.5377888368781</v>
       </c>
       <c r="T40" t="n">
-        <v>347.8788828191238</v>
+        <v>522.5377888368781</v>
       </c>
       <c r="U40" t="n">
-        <v>347.8788828191238</v>
+        <v>477.9452829915039</v>
       </c>
       <c r="V40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="W40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="X40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="Y40" t="n">
-        <v>347.8788828191238</v>
+        <v>222.4540192875249</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1522.123753696797</v>
+        <v>1195.805094802782</v>
       </c>
       <c r="C41" t="n">
-        <v>1151.431737859481</v>
+        <v>825.1130789654665</v>
       </c>
       <c r="D41" t="n">
-        <v>791.2249370972604</v>
+        <v>464.9062782032459</v>
       </c>
       <c r="E41" t="n">
         <v>464.9062782032459</v>
@@ -7414,19 +7414,19 @@
         <v>169.6321066816284</v>
       </c>
       <c r="K41" t="n">
-        <v>438.4373378085478</v>
+        <v>465.963118149277</v>
       </c>
       <c r="L41" t="n">
-        <v>858.0312390377816</v>
+        <v>885.5570193785109</v>
       </c>
       <c r="M41" t="n">
-        <v>1340.122595102721</v>
+        <v>1367.64837544345</v>
       </c>
       <c r="N41" t="n">
-        <v>1814.497518327516</v>
+        <v>1842.023298668246</v>
       </c>
       <c r="O41" t="n">
-        <v>2216.307955276789</v>
+        <v>2243.833735617518</v>
       </c>
       <c r="P41" t="n">
         <v>2522.30507383198</v>
@@ -7435,28 +7435,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R41" t="n">
-        <v>2674.916764680434</v>
+        <v>2619.823381966507</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.916764680434</v>
+        <v>2443.871280120391</v>
       </c>
       <c r="T41" t="n">
-        <v>2674.916764680434</v>
+        <v>2224.799739502287</v>
       </c>
       <c r="U41" t="n">
-        <v>2674.916764680434</v>
+        <v>1973.990429896349</v>
       </c>
       <c r="V41" t="n">
-        <v>2674.916764680434</v>
+        <v>1973.990429896349</v>
       </c>
       <c r="W41" t="n">
-        <v>2674.916764680434</v>
+        <v>1973.990429896349</v>
       </c>
       <c r="X41" t="n">
-        <v>2300.309088790364</v>
+        <v>1973.990429896349</v>
       </c>
       <c r="Y41" t="n">
-        <v>1909.716087021438</v>
+        <v>1583.397428127424</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>53.49833529360867</v>
       </c>
       <c r="J42" t="n">
-        <v>53.49833529360867</v>
+        <v>130.4488591182128</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5524608145354</v>
+        <v>388.5751740658498</v>
       </c>
       <c r="L42" t="n">
-        <v>630.4847529906252</v>
+        <v>796.5074662419395</v>
       </c>
       <c r="M42" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N42" t="n">
         <v>1717.556127851791</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.49833529360867</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="C43" t="n">
-        <v>53.49833529360867</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="D43" t="n">
-        <v>53.49833529360867</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="E43" t="n">
-        <v>53.49833529360867</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="F43" t="n">
-        <v>53.49833529360867</v>
+        <v>222.4540192875249</v>
       </c>
       <c r="G43" t="n">
         <v>53.49833529360867</v>
@@ -7596,25 +7596,25 @@
         <v>736.1662419214828</v>
       </c>
       <c r="S43" t="n">
-        <v>736.1662419214828</v>
+        <v>522.5377888368781</v>
       </c>
       <c r="T43" t="n">
-        <v>631.3880729426076</v>
+        <v>404.3567379649834</v>
       </c>
       <c r="U43" t="n">
-        <v>342.480736189988</v>
+        <v>404.3567379649834</v>
       </c>
       <c r="V43" t="n">
-        <v>342.480736189988</v>
+        <v>404.3567379649834</v>
       </c>
       <c r="W43" t="n">
-        <v>53.49833529360867</v>
+        <v>404.3567379649834</v>
       </c>
       <c r="X43" t="n">
-        <v>53.49833529360867</v>
+        <v>404.3567379649834</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.49833529360867</v>
+        <v>404.3567379649834</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1735.964874779396</v>
+        <v>2110.095528900645</v>
       </c>
       <c r="C44" t="n">
-        <v>1365.27285894208</v>
+        <v>2110.095528900645</v>
       </c>
       <c r="D44" t="n">
-        <v>1005.06605817986</v>
+        <v>1749.888728138425</v>
       </c>
       <c r="E44" t="n">
-        <v>618.0781432755289</v>
+        <v>1362.900813234094</v>
       </c>
       <c r="F44" t="n">
-        <v>206.6702003658916</v>
+        <v>951.4928703244564</v>
       </c>
       <c r="G44" t="n">
-        <v>206.6702003658916</v>
+        <v>533.8515932312461</v>
       </c>
       <c r="H44" t="n">
         <v>206.6702003658916</v>
@@ -7672,28 +7672,28 @@
         <v>2674.916764680434</v>
       </c>
       <c r="R44" t="n">
-        <v>2619.823381966507</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="S44" t="n">
-        <v>2443.871280120391</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="T44" t="n">
-        <v>2443.871280120391</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.871280120391</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.871280120391</v>
+        <v>2674.916764680434</v>
       </c>
       <c r="W44" t="n">
-        <v>2443.871280120391</v>
+        <v>2484.703204790715</v>
       </c>
       <c r="X44" t="n">
-        <v>2443.871280120391</v>
+        <v>2110.095528900645</v>
       </c>
       <c r="Y44" t="n">
-        <v>2123.557208104038</v>
+        <v>2110.095528900645</v>
       </c>
     </row>
     <row r="45">
@@ -7709,16 +7709,16 @@
         <v>806.1360183168308</v>
       </c>
       <c r="D45" t="n">
-        <v>658.5477116757747</v>
+        <v>658.5477116757746</v>
       </c>
       <c r="E45" t="n">
-        <v>500.9381826786295</v>
+        <v>500.9381826786293</v>
       </c>
       <c r="F45" t="n">
-        <v>355.9823926952463</v>
+        <v>355.9823926952462</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3363850537917</v>
+        <v>219.3363850537919</v>
       </c>
       <c r="H45" t="n">
         <v>115.0128496747349</v>
@@ -7730,13 +7730,13 @@
         <v>130.4488591182128</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5524608145354</v>
+        <v>388.5751740658498</v>
       </c>
       <c r="L45" t="n">
-        <v>630.4847529906252</v>
+        <v>796.5074662419395</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.322691111659</v>
+        <v>1325.345404362973</v>
       </c>
       <c r="N45" t="n">
         <v>1717.556127851791</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>516.4947070395725</v>
+        <v>554.2635232440243</v>
       </c>
       <c r="C46" t="n">
-        <v>516.4947070395725</v>
+        <v>554.2635232440243</v>
       </c>
       <c r="D46" t="n">
-        <v>516.4947070395725</v>
+        <v>403.7528499970351</v>
       </c>
       <c r="E46" t="n">
-        <v>516.4947070395725</v>
+        <v>255.2936336604702</v>
       </c>
       <c r="F46" t="n">
-        <v>516.4947070395725</v>
+        <v>107.6582584990516</v>
       </c>
       <c r="G46" t="n">
-        <v>347.5390230456562</v>
+        <v>53.49833529360867</v>
       </c>
       <c r="H46" t="n">
-        <v>189.87141694901</v>
+        <v>53.49833529360867</v>
       </c>
       <c r="I46" t="n">
         <v>53.49833529360867</v>
@@ -7836,22 +7836,22 @@
         <v>736.1662419214828</v>
       </c>
       <c r="T46" t="n">
-        <v>516.4947070395725</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="U46" t="n">
-        <v>516.4947070395725</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="V46" t="n">
-        <v>516.4947070395725</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="W46" t="n">
-        <v>516.4947070395725</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="X46" t="n">
-        <v>516.4947070395725</v>
+        <v>736.1662419214828</v>
       </c>
       <c r="Y46" t="n">
-        <v>516.4947070395725</v>
+        <v>736.1662419214828</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
         <v>280.0696625926461</v>
       </c>
       <c r="M2" t="n">
-        <v>268.6972646339017</v>
+        <v>274.7849853934995</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>273.8751450035847</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>272.5149860321679</v>
       </c>
       <c r="P2" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8069,10 +8069,10 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>168.7594084232482</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>179.7325774753315</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
@@ -8224,13 +8224,13 @@
         <v>280.0696625926461</v>
       </c>
       <c r="M5" t="n">
-        <v>274.7849853934995</v>
+        <v>268.6972646339017</v>
       </c>
       <c r="N5" t="n">
         <v>273.8751450035847</v>
       </c>
       <c r="O5" t="n">
-        <v>268.4554433734553</v>
+        <v>274.5431641330531</v>
       </c>
       <c r="P5" t="n">
         <v>225.4521708613878</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>184.5928109969086</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>185.2879282822859</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>188.7780910708764</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>176.2273991772734</v>
       </c>
       <c r="O6" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>171.3262863709703</v>
+        <v>180.8224552258806</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8455,19 +8455,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>264.7850127657646</v>
       </c>
       <c r="L8" t="n">
-        <v>280.0696625926461</v>
+        <v>278.041484491761</v>
       </c>
       <c r="M8" t="n">
         <v>274.7849853934995</v>
       </c>
       <c r="N8" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
-        <v>272.5149860321679</v>
+        <v>274.5431641330531</v>
       </c>
       <c r="P8" t="n">
         <v>225.4521708613878</v>
@@ -8531,22 +8531,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>184.5928109969086</v>
       </c>
       <c r="L9" t="n">
-        <v>183.2597501814007</v>
+        <v>175.7917594273756</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>188.7780910708764</v>
       </c>
       <c r="N9" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
         <v>180.8224552258806</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>148.0566612529685</v>
       </c>
       <c r="K11" t="n">
-        <v>309.3074105480223</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
@@ -8774,13 +8774,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>217.9742487607351</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>330.8163589624328</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8929,13 +8929,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>309.3074105480223</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325458</v>
+        <v>439.6902563065576</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624332</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.7806688904203</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>148.0566612529685</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9178,7 +9178,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>368.228369987266</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
         <v>334.6706564983419</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40687491099067</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>185.0719379812534</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9260,7 +9260,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>163.5015690306723</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9409,7 +9409,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>439.6902563065576</v>
       </c>
       <c r="N20" t="n">
         <v>454.8408013884635</v>
@@ -9418,7 +9418,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>306.8668379723529</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40687491099067</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>185.0719379812533</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624328</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9643,7 +9643,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L23" t="n">
-        <v>406.5638446064793</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
         <v>467.4940748325458</v>
@@ -9658,7 +9658,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8075902863009</v>
+        <v>193.003771760312</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>330.8163589624328</v>
+        <v>330.8163589624332</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9877,7 +9877,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1112290740114</v>
+        <v>309.3074105480223</v>
       </c>
       <c r="L26" t="n">
         <v>434.3676631324684</v>
@@ -9895,7 +9895,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>193.0037717603115</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9959,13 +9959,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9742487607346</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624328</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10190,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40687491099067</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>185.0719379812538</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624332</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10357,7 +10357,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>439.6902563065576</v>
       </c>
       <c r="N32" t="n">
         <v>454.8408013884635</v>
@@ -10369,7 +10369,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>193.0037717603115</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10436,7 +10436,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>316.6335559451371</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
         <v>498.5160693172957</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>50.78066889042029</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>53.40687491099067</v>
       </c>
       <c r="K36" t="n">
-        <v>107.3441361382189</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10682,7 +10682,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>241.229370873706</v>
       </c>
       <c r="Q36" t="n">
         <v>218.4803792452831</v>
@@ -10831,13 +10831,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>467.4940748325458</v>
+        <v>439.6902563065567</v>
       </c>
       <c r="N38" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O38" t="n">
-        <v>368.228369987266</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
         <v>334.6706564983419</v>
@@ -10913,10 +10913,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624328</v>
       </c>
       <c r="O39" t="n">
-        <v>241.9171016929359</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11062,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>309.3074105480223</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11077,7 +11077,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983419</v>
+        <v>306.8668379723529</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40687491099067</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>185.0719379812533</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624328</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>107.3441361382189</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>330.8163589624328</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>24.858439026734</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>230.7401280236314</v>
       </c>
       <c r="H11" t="n">
         <v>323.9095789367009</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.880825211923</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3665714900202</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.9746241731992</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>27.55427787637352</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>145.3580390812033</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.4921685537585</v>
       </c>
       <c r="T13" t="n">
         <v>225.66858385713</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>247.5178724017726</v>
+        <v>12.11895340495664</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23503,10 +23503,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>240.1395261729467</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9095789367009</v>
       </c>
       <c r="I14" t="n">
-        <v>110.6159396418811</v>
+        <v>151.6401464215601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.1925808276551</v>
       </c>
       <c r="T14" t="n">
-        <v>216.880825211923</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>75.65882604991251</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.2661271539771</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.0909300356798</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>135.0093508388473</v>
       </c>
       <c r="J16" t="n">
         <v>44.76009735532053</v>
@@ -23706,16 +23706,16 @@
         <v>211.4921685537585</v>
       </c>
       <c r="T16" t="n">
-        <v>225.66858385713</v>
+        <v>121.9381965680436</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0182633850934</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T17" t="n">
-        <v>149.0736856219796</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3665714900202</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>140.3526427605094</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.009401181950125</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23946,19 +23946,19 @@
         <v>225.66858385713</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>149.2059637778528</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -23980,13 +23980,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>318.8401507301283</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I20" t="n">
         <v>151.6401464215601</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>312.1968983372583</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>27.55427787637352</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>145.3580390812033</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.4921685537585</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.66858385713</v>
       </c>
       <c r="U22" t="n">
-        <v>220.2501051919634</v>
+        <v>286.0182633850934</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>89.32806032506863</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.6401464215601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.43306399434351</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3665714900202</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>30.03424419528733</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2661271539771</v>
       </c>
       <c r="H25" t="n">
         <v>156.0909300356798</v>
@@ -24420,13 +24420,13 @@
         <v>225.66858385713</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>149.2059637778528</v>
       </c>
       <c r="V25" t="n">
-        <v>177.3541382176134</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>131.0320556479352</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24460,10 +24460,10 @@
         <v>413.4648643222781</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.6401464215601</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.880825211923</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>221.7329547811593</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -24612,10 +24612,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>116.6606320014347</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2661271539771</v>
       </c>
       <c r="H28" t="n">
         <v>156.0909300356798</v>
@@ -24651,7 +24651,7 @@
         <v>145.3580390812033</v>
       </c>
       <c r="S28" t="n">
-        <v>211.4921685537585</v>
+        <v>29.23020682385393</v>
       </c>
       <c r="T28" t="n">
         <v>225.66858385713</v>
@@ -24660,13 +24660,13 @@
         <v>286.0182633850934</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>314.5452235881648</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>66.23356429195002</v>
+        <v>413.4648643222781</v>
       </c>
       <c r="H29" t="n">
         <v>323.9095789367009</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.880825211923</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3665714900202</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24855,7 +24855,7 @@
         <v>167.2661271539771</v>
       </c>
       <c r="H31" t="n">
-        <v>156.0909300356798</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>135.0093508388473</v>
@@ -24888,13 +24888,13 @@
         <v>145.3580390812033</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.4921685537585</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.66858385713</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0182633850934</v>
+        <v>159.7448787226895</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.2085586493708</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4648643222781</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.6401464215601</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.880825211923</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3665714900202</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>70.02749819682458</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>60.06256345021313</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2661271539771</v>
       </c>
       <c r="H34" t="n">
         <v>156.0909300356798</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.55427787637352</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>145.3580390812033</v>
       </c>
       <c r="S34" t="n">
-        <v>94.57805897148535</v>
+        <v>211.4921685537585</v>
       </c>
       <c r="T34" t="n">
-        <v>225.66858385713</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0182633850934</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>121.9381965680436</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>53.47333079905525</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4648643222781</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.6401464215601</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.1925808276551</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>331.8320384927462</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>84.91814960902457</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.2661271539771</v>
@@ -25362,13 +25362,13 @@
         <v>145.3580390812033</v>
       </c>
       <c r="S37" t="n">
-        <v>211.4921685537585</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0182633850934</v>
+        <v>193.4968096441912</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4648643222781</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9095789367009</v>
       </c>
       <c r="I38" t="n">
-        <v>151.6401464215601</v>
+        <v>13.447040272603</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>54.54244888678674</v>
       </c>
       <c r="S38" t="n">
-        <v>81.73107815306724</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T38" t="n">
         <v>216.880825211923</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -25459,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.92031513939699</v>
+        <v>156.0909300356798</v>
       </c>
       <c r="I40" t="n">
         <v>135.0093508388473</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.55427787637352</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.3580390812033</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>225.66858385713</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0182633850934</v>
+        <v>241.871682598173</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>60.06256345021313</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.54244888678674</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.1925808276551</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.880825211923</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3665714900202</v>
+        <v>3.065354980141279</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25693,7 +25693,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2661271539771</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.0909300356798</v>
@@ -25836,19 +25836,19 @@
         <v>145.3580390812033</v>
       </c>
       <c r="S43" t="n">
-        <v>211.4921685537585</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>121.9381965680435</v>
+        <v>108.6693434939542</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0182633850934</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4648643222781</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9095789367009</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.54244888678674</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.1925808276551</v>
       </c>
       <c r="T44" t="n">
         <v>216.880825211923</v>
@@ -25927,13 +25927,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>162.2186927097333</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>69.57614045504607</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>113.6478031805886</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.0909300356798</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>135.0093508388473</v>
       </c>
       <c r="J46" t="n">
         <v>44.76009735532053</v>
@@ -26076,7 +26076,7 @@
         <v>211.4921685537585</v>
       </c>
       <c r="T46" t="n">
-        <v>8.193764324038815</v>
+        <v>225.66858385713</v>
       </c>
       <c r="U46" t="n">
         <v>286.0182633850934</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731137.5253291504</v>
+        <v>731137.5253291506</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731137.5253291504</v>
+        <v>731137.5253291505</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731137.5253291504</v>
+        <v>731137.5253291506</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731137.5253291503</v>
+        <v>731137.5253291505</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731137.5253291506</v>
+        <v>731137.5253291505</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731137.5253291505</v>
+        <v>731137.5253291504</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731137.5253291505</v>
+        <v>731137.5253291504</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731137.5253291504</v>
+        <v>731137.5253291503</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731137.5253291504</v>
+        <v>731137.5253291505</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731137.5253291503</v>
+        <v>731137.5253291505</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>508699.6303843351</v>
+        <v>508699.6303843352</v>
       </c>
       <c r="C2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="D2" t="n">
         <v>508699.6303843352</v>
       </c>
       <c r="E2" t="n">
+        <v>355571.9547775981</v>
+      </c>
+      <c r="F2" t="n">
+        <v>355571.954777598</v>
+      </c>
+      <c r="G2" t="n">
+        <v>355571.9547775981</v>
+      </c>
+      <c r="H2" t="n">
         <v>355571.9547775979</v>
-      </c>
-      <c r="F2" t="n">
-        <v>355571.9547775979</v>
-      </c>
-      <c r="G2" t="n">
-        <v>355571.9547775979</v>
-      </c>
-      <c r="H2" t="n">
-        <v>355571.954777598</v>
       </c>
       <c r="I2" t="n">
         <v>355571.954777598</v>
       </c>
       <c r="J2" t="n">
+        <v>355571.9547775979</v>
+      </c>
+      <c r="K2" t="n">
         <v>355571.954777598</v>
-      </c>
-      <c r="K2" t="n">
-        <v>355571.9547775979</v>
       </c>
       <c r="L2" t="n">
         <v>355571.954777598</v>
       </c>
       <c r="M2" t="n">
+        <v>355571.9547775982</v>
+      </c>
+      <c r="N2" t="n">
+        <v>355571.954777598</v>
+      </c>
+      <c r="O2" t="n">
         <v>355571.9547775981</v>
       </c>
-      <c r="N2" t="n">
-        <v>355571.9547775979</v>
-      </c>
-      <c r="O2" t="n">
-        <v>355571.9547775979</v>
-      </c>
       <c r="P2" t="n">
-        <v>355571.9547775981</v>
+        <v>355571.954777598</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13133.85061794316</v>
+        <v>13133.8506179431</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>387706.2110853968</v>
       </c>
       <c r="C4" t="n">
-        <v>387706.2110853967</v>
+        <v>387706.2110853968</v>
       </c>
       <c r="D4" t="n">
-        <v>387706.2110853967</v>
+        <v>387706.2110853968</v>
       </c>
       <c r="E4" t="n">
-        <v>91617.39624181409</v>
+        <v>91617.39624181412</v>
       </c>
       <c r="F4" t="n">
         <v>91617.3962418141</v>
       </c>
       <c r="G4" t="n">
-        <v>91617.39624181407</v>
+        <v>91617.39624181412</v>
       </c>
       <c r="H4" t="n">
-        <v>91617.39624181407</v>
+        <v>91617.3962418141</v>
       </c>
       <c r="I4" t="n">
         <v>91617.39624181409</v>
       </c>
       <c r="J4" t="n">
-        <v>91617.3962418141</v>
+        <v>91617.39624181409</v>
       </c>
       <c r="K4" t="n">
         <v>91617.3962418141</v>
       </c>
       <c r="L4" t="n">
+        <v>91617.3962418141</v>
+      </c>
+      <c r="M4" t="n">
         <v>91617.39624181407</v>
-      </c>
-      <c r="M4" t="n">
-        <v>91617.3962418141</v>
       </c>
       <c r="N4" t="n">
         <v>91617.39624181409</v>
@@ -26459,7 +26459,7 @@
         <v>91617.3962418141</v>
       </c>
       <c r="P4" t="n">
-        <v>91617.39624181407</v>
+        <v>91617.39624181409</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>36679.60240621204</v>
       </c>
       <c r="E5" t="n">
-        <v>48195.82091313296</v>
+        <v>48195.82091313298</v>
       </c>
       <c r="F5" t="n">
-        <v>48195.82091313296</v>
+        <v>48195.82091313298</v>
       </c>
       <c r="G5" t="n">
-        <v>48195.82091313296</v>
+        <v>48195.82091313298</v>
       </c>
       <c r="H5" t="n">
-        <v>48195.82091313296</v>
+        <v>48195.82091313298</v>
       </c>
       <c r="I5" t="n">
-        <v>48195.82091313296</v>
+        <v>48195.82091313298</v>
       </c>
       <c r="J5" t="n">
         <v>48195.82091313296</v>
@@ -26499,7 +26499,7 @@
         <v>48195.82091313298</v>
       </c>
       <c r="L5" t="n">
-        <v>48195.82091313296</v>
+        <v>48195.82091313298</v>
       </c>
       <c r="M5" t="n">
         <v>48195.82091313296</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67491.5109325783</v>
+        <v>67491.51093257844</v>
       </c>
       <c r="C6" t="n">
-        <v>84313.81689272646</v>
+        <v>84313.81689272649</v>
       </c>
       <c r="D6" t="n">
-        <v>84313.81689272652</v>
+        <v>84313.81689272638</v>
       </c>
       <c r="E6" t="n">
-        <v>-246688.106416047</v>
+        <v>-252813.2134403164</v>
       </c>
       <c r="F6" t="n">
-        <v>215758.7376226509</v>
+        <v>209633.6305983814</v>
       </c>
       <c r="G6" t="n">
-        <v>215758.7376226508</v>
+        <v>209633.6305983815</v>
       </c>
       <c r="H6" t="n">
-        <v>215758.7376226509</v>
+        <v>209633.6305983813</v>
       </c>
       <c r="I6" t="n">
-        <v>215758.737622651</v>
+        <v>209633.6305983815</v>
       </c>
       <c r="J6" t="n">
-        <v>202624.8870047078</v>
+        <v>196499.7799804383</v>
       </c>
       <c r="K6" t="n">
-        <v>215758.7376226508</v>
+        <v>209633.6305983814</v>
       </c>
       <c r="L6" t="n">
-        <v>215758.7376226509</v>
+        <v>209633.6305983814</v>
       </c>
       <c r="M6" t="n">
-        <v>61618.14312875696</v>
+        <v>55493.03610448756</v>
       </c>
       <c r="N6" t="n">
-        <v>215758.7376226509</v>
+        <v>209633.6305983814</v>
       </c>
       <c r="O6" t="n">
-        <v>215758.7376226509</v>
+        <v>209633.6305983815</v>
       </c>
       <c r="P6" t="n">
-        <v>215758.737622651</v>
+        <v>209633.6305983815</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>50.19740799690857</v>
       </c>
       <c r="E4" t="n">
-        <v>668.7291911701084</v>
+        <v>668.7291911701085</v>
       </c>
       <c r="F4" t="n">
-        <v>668.7291911701084</v>
+        <v>668.7291911701085</v>
       </c>
       <c r="G4" t="n">
-        <v>668.7291911701084</v>
+        <v>668.7291911701085</v>
       </c>
       <c r="H4" t="n">
-        <v>668.7291911701084</v>
+        <v>668.7291911701085</v>
       </c>
       <c r="I4" t="n">
-        <v>668.7291911701084</v>
+        <v>668.7291911701085</v>
       </c>
       <c r="J4" t="n">
         <v>668.7291911701084</v>
@@ -26819,7 +26819,7 @@
         <v>668.7291911701085</v>
       </c>
       <c r="L4" t="n">
-        <v>668.7291911701084</v>
+        <v>668.7291911701085</v>
       </c>
       <c r="M4" t="n">
         <v>668.7291911701084</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5317831731999</v>
+        <v>618.5317831732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690862</v>
+        <v>50.1974079969084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.5317831731999</v>
+        <v>618.5317831732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>363.7392636514262</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>364.6573574069224</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27429,16 +27429,16 @@
         <v>91.65341470396851</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>184.4589807787964</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>201.2803555796359</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>278.3358135256108</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>126.811706963724</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
@@ -27475,7 +27475,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>60.26510752522421</v>
       </c>
       <c r="I3" t="n">
         <v>36.3061354685631</v>
@@ -27508,7 +27508,7 @@
         <v>44.49757176418265</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>124.7477369419674</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -27554,13 +27554,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>152.0075984714091</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>38.64143693087037</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>29.56329187893961</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -27593,13 +27593,13 @@
         <v>178.1350579945991</v>
       </c>
       <c r="U4" t="n">
-        <v>276.4257968535565</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V4" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>235.895168890507</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -27627,10 +27627,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0964554836323</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>371.3001655747163</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>91.65341470396851</v>
       </c>
       <c r="S5" t="n">
         <v>155.6675437266307</v>
@@ -27675,7 +27675,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>307.1272505777765</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
@@ -27706,13 +27706,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>93.30882408664073</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>60.26510752522421</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>118.7642059087358</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>148.1851239113601</v>
+        <v>154.1686549445916</v>
       </c>
       <c r="U6" t="n">
-        <v>180.4433001035242</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>181.7113230427466</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
@@ -27794,13 +27794,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>103.5611388004951</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>148.9902644144412</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>172.159998964514</v>
+        <v>212.7309334239148</v>
       </c>
       <c r="T7" t="n">
-        <v>178.1350579945991</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
-        <v>252.9363510669392</v>
+        <v>202.7389430700306</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
-        <v>226.1403599323093</v>
+        <v>175.9429519354007</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -27861,22 +27861,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>338.9041587916104</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>357.0964554836323</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>364.6573574069224</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>155.0268998712154</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>91.65341470396851</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>155.6675437266307</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>201.5591462516775</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27915,7 +27915,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
@@ -27946,13 +27946,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>85.82580220813375</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.48110279741417</v>
+        <v>44.49757176418265</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>118.7642059087358</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>148.1851239113601</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -28000,7 +28000,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>159.457274454909</v>
       </c>
     </row>
     <row r="10">
@@ -28019,16 +28019,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>96.77721617629061</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>158.2631153926003</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6340720089168</v>
+        <v>111.4366640120083</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>29.56329187893961</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28064,16 +28064,16 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>178.1350579945991</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>261.6916936320744</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>50.19740799690857</v>
       </c>
       <c r="M2" t="n">
-        <v>44.10968723731074</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>48.16922989602337</v>
       </c>
       <c r="P2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>40.70123914199824</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>50.19740799690857</v>
       </c>
       <c r="M5" t="n">
-        <v>50.19740799690857</v>
+        <v>44.10968723731074</v>
       </c>
       <c r="N5" t="n">
         <v>50.19740799690857</v>
       </c>
       <c r="O5" t="n">
-        <v>44.10968723731075</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>50.19740799690857</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>48.16922989602339</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>40.70123914199824</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="L8" t="n">
-        <v>50.19740799690857</v>
+        <v>48.16922989602339</v>
       </c>
       <c r="M8" t="n">
         <v>50.19740799690857</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>50.19740799690857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>48.16922989602337</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="L9" t="n">
-        <v>48.16922989602339</v>
+        <v>40.70123914199824</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="N9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>50.19740799690857</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.3068397858786</v>
+        <v>89.50302125989036</v>
       </c>
       <c r="K11" t="n">
-        <v>271.5204354817367</v>
+        <v>299.3242540077258</v>
       </c>
       <c r="L11" t="n">
         <v>423.8322234638725</v>
@@ -35494,13 +35494,13 @@
         <v>260.7336514622595</v>
       </c>
       <c r="L12" t="n">
-        <v>412.0528203798887</v>
+        <v>244.3531100250262</v>
       </c>
       <c r="M12" t="n">
         <v>534.1797354757916</v>
       </c>
       <c r="N12" t="n">
-        <v>396.1724479685031</v>
+        <v>563.872158323366</v>
       </c>
       <c r="O12" t="n">
         <v>447.5217335048878</v>
@@ -35649,13 +35649,13 @@
         <v>117.3068397858786</v>
       </c>
       <c r="K14" t="n">
-        <v>271.5204354817367</v>
+        <v>299.3242540077258</v>
       </c>
       <c r="L14" t="n">
         <v>423.8322234638725</v>
       </c>
       <c r="M14" t="n">
-        <v>486.9609657221609</v>
+        <v>459.1571471961727</v>
       </c>
       <c r="N14" t="n">
         <v>479.1665891159552</v>
@@ -35737,7 +35737,7 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N15" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685035</v>
       </c>
       <c r="O15" t="n">
         <v>447.5217335048878</v>
@@ -35746,7 +35746,7 @@
         <v>342.5831796145864</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.226322817220984</v>
+        <v>176.9260331720837</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3068397858786</v>
+        <v>89.50302125989036</v>
       </c>
       <c r="K17" t="n">
         <v>299.3242540077258</v>
@@ -35898,7 +35898,7 @@
         <v>479.1665891159552</v>
       </c>
       <c r="O17" t="n">
-        <v>378.0653097055987</v>
+        <v>405.8691282315879</v>
       </c>
       <c r="P17" t="n">
         <v>309.087998540597</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>77.72780184303451</v>
       </c>
       <c r="K18" t="n">
-        <v>170.7617429504311</v>
+        <v>260.7336514622595</v>
       </c>
       <c r="L18" t="n">
         <v>412.0528203798887</v>
@@ -35980,7 +35980,7 @@
         <v>447.5217335048878</v>
       </c>
       <c r="P18" t="n">
-        <v>342.5831796145864</v>
+        <v>174.883469259724</v>
       </c>
       <c r="Q18" t="n">
         <v>176.9260331720837</v>
@@ -36129,7 +36129,7 @@
         <v>423.8322234638725</v>
       </c>
       <c r="M20" t="n">
-        <v>486.9609657221609</v>
+        <v>459.1571471961727</v>
       </c>
       <c r="N20" t="n">
         <v>479.1665891159552</v>
@@ -36138,7 +36138,7 @@
         <v>405.8691282315879</v>
       </c>
       <c r="P20" t="n">
-        <v>281.284180014608</v>
+        <v>309.087998540597</v>
       </c>
       <c r="Q20" t="n">
         <v>154.1532230792462</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>77.72780184303451</v>
       </c>
       <c r="K21" t="n">
-        <v>170.7617429504311</v>
+        <v>260.7336514622595</v>
       </c>
       <c r="L21" t="n">
         <v>412.0528203798887</v>
@@ -36211,7 +36211,7 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N21" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685031</v>
       </c>
       <c r="O21" t="n">
         <v>447.5217335048878</v>
@@ -36363,7 +36363,7 @@
         <v>299.3242540077258</v>
       </c>
       <c r="L23" t="n">
-        <v>396.0284049378834</v>
+        <v>423.8322234638725</v>
       </c>
       <c r="M23" t="n">
         <v>486.9609657221609</v>
@@ -36378,7 +36378,7 @@
         <v>309.087998540597</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.1532230792462</v>
+        <v>126.3494045532573</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N24" t="n">
-        <v>396.1724479685031</v>
+        <v>396.1724479685035</v>
       </c>
       <c r="O24" t="n">
         <v>447.5217335048878</v>
@@ -36597,7 +36597,7 @@
         <v>117.3068397858786</v>
       </c>
       <c r="K26" t="n">
-        <v>299.3242540077258</v>
+        <v>271.5204354817367</v>
       </c>
       <c r="L26" t="n">
         <v>423.8322234638725</v>
@@ -36615,7 +36615,7 @@
         <v>309.087998540597</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.3494045532569</v>
+        <v>154.1532230792462</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>260.7336514622595</v>
       </c>
       <c r="L27" t="n">
-        <v>244.3531100250257</v>
+        <v>412.0528203798887</v>
       </c>
       <c r="M27" t="n">
         <v>534.1797354757916</v>
       </c>
       <c r="N27" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685031</v>
       </c>
       <c r="O27" t="n">
         <v>447.5217335048878</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>77.72780184303451</v>
       </c>
       <c r="K30" t="n">
-        <v>170.7617429504315</v>
+        <v>260.7336514622595</v>
       </c>
       <c r="L30" t="n">
         <v>412.0528203798887</v>
@@ -36922,7 +36922,7 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N30" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685035</v>
       </c>
       <c r="O30" t="n">
         <v>447.5217335048878</v>
@@ -37077,7 +37077,7 @@
         <v>423.8322234638725</v>
       </c>
       <c r="M32" t="n">
-        <v>486.9609657221609</v>
+        <v>459.1571471961727</v>
       </c>
       <c r="N32" t="n">
         <v>479.1665891159552</v>
@@ -37089,7 +37089,7 @@
         <v>309.087998540597</v>
       </c>
       <c r="Q32" t="n">
-        <v>126.3494045532569</v>
+        <v>154.1532230792462</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>412.0528203798887</v>
       </c>
       <c r="M33" t="n">
-        <v>366.4800251209288</v>
+        <v>534.1797354757916</v>
       </c>
       <c r="N33" t="n">
         <v>563.872158323366</v>
@@ -37168,7 +37168,7 @@
         <v>342.5831796145864</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.9260331720837</v>
+        <v>9.226322817220984</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>77.72780184303451</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>93.03394110739659</v>
+        <v>260.7336514622595</v>
       </c>
       <c r="L36" t="n">
         <v>412.0528203798887</v>
@@ -37402,7 +37402,7 @@
         <v>447.5217335048878</v>
       </c>
       <c r="P36" t="n">
-        <v>342.5831796145864</v>
+        <v>252.6112711027577</v>
       </c>
       <c r="Q36" t="n">
         <v>176.9260331720837</v>
@@ -37551,13 +37551,13 @@
         <v>423.8322234638725</v>
       </c>
       <c r="M38" t="n">
-        <v>486.9609657221609</v>
+        <v>459.1571471961718</v>
       </c>
       <c r="N38" t="n">
         <v>479.1665891159552</v>
       </c>
       <c r="O38" t="n">
-        <v>378.0653097055987</v>
+        <v>405.8691282315879</v>
       </c>
       <c r="P38" t="n">
         <v>309.087998540597</v>
@@ -37633,10 +37633,10 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N39" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685031</v>
       </c>
       <c r="O39" t="n">
-        <v>279.822023150025</v>
+        <v>447.5217335048878</v>
       </c>
       <c r="P39" t="n">
         <v>342.5831796145864</v>
@@ -37782,7 +37782,7 @@
         <v>117.3068397858786</v>
       </c>
       <c r="K41" t="n">
-        <v>271.5204354817367</v>
+        <v>299.3242540077258</v>
       </c>
       <c r="L41" t="n">
         <v>423.8322234638725</v>
@@ -37797,7 +37797,7 @@
         <v>405.8691282315879</v>
       </c>
       <c r="P41" t="n">
-        <v>309.087998540597</v>
+        <v>281.284180014608</v>
       </c>
       <c r="Q41" t="n">
         <v>154.1532230792462</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>77.72780184303451</v>
       </c>
       <c r="K42" t="n">
-        <v>170.7617429504311</v>
+        <v>260.7336514622595</v>
       </c>
       <c r="L42" t="n">
         <v>412.0528203798887</v>
@@ -37870,7 +37870,7 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N42" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685031</v>
       </c>
       <c r="O42" t="n">
         <v>447.5217335048878</v>
@@ -38098,7 +38098,7 @@
         <v>77.72780184303451</v>
       </c>
       <c r="K45" t="n">
-        <v>93.03394110739659</v>
+        <v>260.7336514622595</v>
       </c>
       <c r="L45" t="n">
         <v>412.0528203798887</v>
@@ -38107,7 +38107,7 @@
         <v>534.1797354757916</v>
       </c>
       <c r="N45" t="n">
-        <v>563.872158323366</v>
+        <v>396.1724479685031</v>
       </c>
       <c r="O45" t="n">
         <v>447.5217335048878</v>
